--- a/spreadsheet/ASB-LEGACY-VLAN_Workbook.xlsx
+++ b/spreadsheet/ASB-LEGACY-VLAN_Workbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="119">
   <si>
     <t xml:space="preserve">VDC</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t xml:space="preserve">Legacy VLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD-CUST-MNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPG-SVC-LAB-MNS-1</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
@@ -468,8 +474,8 @@
   </sheetPr>
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H67" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L90" activeCellId="0" sqref="L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -482,8 +488,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="26.48"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -570,16 +576,14 @@
       <c r="K2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A2&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M2" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,7 +597,7 @@
         <v>1002</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A3&amp;"-TN"</f>
@@ -618,16 +622,14 @@
       <c r="K3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A3&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M3" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,7 +643,7 @@
         <v>1003</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A4&amp;"-TN"</f>
@@ -666,16 +668,14 @@
       <c r="K4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A4&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M4" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -689,7 +689,7 @@
         <v>1004</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A5&amp;"-TN"</f>
@@ -714,16 +714,14 @@
       <c r="K5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A5&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M5" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,7 +735,7 @@
         <v>1005</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A6&amp;"-TN"</f>
@@ -762,16 +760,14 @@
       <c r="K6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A6&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M6" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,7 +781,7 @@
         <v>1006</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A7&amp;"-TN"</f>
@@ -810,16 +806,14 @@
       <c r="K7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A7&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M7" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -833,7 +827,7 @@
         <v>1007</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A8&amp;"-TN"</f>
@@ -858,16 +852,14 @@
       <c r="K8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A8&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M8" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -881,7 +873,7 @@
         <v>1008</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A9&amp;"-TN"</f>
@@ -906,16 +898,14 @@
       <c r="K9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A9&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M9" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,7 +919,7 @@
         <v>1009</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A10&amp;"-TN"</f>
@@ -954,16 +944,14 @@
       <c r="K10" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A10&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M10" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,7 +965,7 @@
         <v>1010</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A11&amp;"-TN"</f>
@@ -1002,16 +990,14 @@
       <c r="K11" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A11&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M11" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1025,7 +1011,7 @@
         <v>1011</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F12" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A12&amp;"-TN"</f>
@@ -1050,16 +1036,14 @@
       <c r="K12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A12&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M12" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,7 +1057,7 @@
         <v>1012</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F13" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A13&amp;"-TN"</f>
@@ -1098,16 +1082,14 @@
       <c r="K13" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A13&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M13" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1121,7 +1103,7 @@
         <v>1013</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A14&amp;"-TN"</f>
@@ -1146,16 +1128,14 @@
       <c r="K14" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A14&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M14" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1163,13 +1143,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1014</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A15&amp;"-TN"</f>
@@ -1194,16 +1174,14 @@
       <c r="K15" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A15&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M15" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1211,13 +1189,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1015</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F16" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A16&amp;"-TN"</f>
@@ -1242,16 +1220,14 @@
       <c r="K16" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A16&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M16" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1259,13 +1235,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1016</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F17" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A17&amp;"-TN"</f>
@@ -1290,16 +1266,14 @@
       <c r="K17" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A17&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M17" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1307,13 +1281,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1017</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F18" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A18&amp;"-TN"</f>
@@ -1338,16 +1312,14 @@
       <c r="K18" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A18&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M18" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1355,13 +1327,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1018</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F19" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A19&amp;"-TN"</f>
@@ -1386,16 +1358,14 @@
       <c r="K19" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A19&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M19" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1403,13 +1373,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1019</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F20" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A20&amp;"-TN"</f>
@@ -1434,16 +1404,14 @@
       <c r="K20" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A20&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M20" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,13 +1419,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1020</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A21&amp;"-TN"</f>
@@ -1482,16 +1450,14 @@
       <c r="K21" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A21&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M21" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,13 +1465,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1021</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A22&amp;"-TN"</f>
@@ -1530,16 +1496,14 @@
       <c r="K22" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A22&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M22" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1547,13 +1511,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1022</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F23" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A23&amp;"-TN"</f>
@@ -1578,16 +1542,14 @@
       <c r="K23" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A23&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M23" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1595,13 +1557,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1023</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F24" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A24&amp;"-TN"</f>
@@ -1626,16 +1588,14 @@
       <c r="K24" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A24&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M24" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1643,13 +1603,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1024</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F25" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A25&amp;"-TN"</f>
@@ -1674,16 +1634,14 @@
       <c r="K25" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A25&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M25" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1691,13 +1649,13 @@
         <v>15</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1025</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F26" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A26&amp;"-TN"</f>
@@ -1722,16 +1680,14 @@
       <c r="K26" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A26&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M26" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1739,13 +1695,13 @@
         <v>15</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1026</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F27" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A27&amp;"-TN"</f>
@@ -1770,16 +1726,14 @@
       <c r="K27" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A27&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M27" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,13 +1741,13 @@
         <v>15</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1027</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F28" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A28&amp;"-TN"</f>
@@ -1818,16 +1772,14 @@
       <c r="K28" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A28&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M28" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1835,13 +1787,13 @@
         <v>15</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1028</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F29" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A29&amp;"-TN"</f>
@@ -1866,30 +1818,28 @@
       <c r="K29" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A29&amp;"_PHYDOM"</f>
-        <v>LEGACY-LAN_PHYDOM</v>
-      </c>
-      <c r="M29" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1029</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F30" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A30&amp;"-TN"</f>
@@ -1914,30 +1864,28 @@
       <c r="K30" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A30&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M30" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1030</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F31" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A31&amp;"-TN"</f>
@@ -1962,30 +1910,28 @@
       <c r="K31" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A31&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M31" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1031</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F32" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A32&amp;"-TN"</f>
@@ -2010,30 +1956,28 @@
       <c r="K32" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A32&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M32" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1032</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F33" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A33&amp;"-TN"</f>
@@ -2058,30 +2002,28 @@
       <c r="K33" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A33&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M33" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1033</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F34" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A34&amp;"-TN"</f>
@@ -2106,30 +2048,28 @@
       <c r="K34" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A34&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M34" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L34" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1034</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F35" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A35&amp;"-TN"</f>
@@ -2154,30 +2094,28 @@
       <c r="K35" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A35&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M35" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L35" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1035</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F36" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A36&amp;"-TN"</f>
@@ -2202,30 +2140,28 @@
       <c r="K36" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A36&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M36" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L36" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1036</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F37" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A37&amp;"-TN"</f>
@@ -2250,30 +2186,28 @@
       <c r="K37" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A37&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M37" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1037</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F38" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A38&amp;"-TN"</f>
@@ -2298,30 +2232,28 @@
       <c r="K38" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A38&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M38" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L38" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1038</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F39" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A39&amp;"-TN"</f>
@@ -2346,30 +2278,28 @@
       <c r="K39" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A39&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M39" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L39" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1039</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F40" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A40&amp;"-TN"</f>
@@ -2394,30 +2324,28 @@
       <c r="K40" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A40&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M40" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L40" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1040</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F41" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A41&amp;"-TN"</f>
@@ -2442,30 +2370,28 @@
       <c r="K41" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A41&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M41" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L41" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>1041</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F42" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A42&amp;"-TN"</f>
@@ -2490,30 +2416,28 @@
       <c r="K42" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L42" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A42&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M42" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L42" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>1042</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F43" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A43&amp;"-TN"</f>
@@ -2538,30 +2462,28 @@
       <c r="K43" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A43&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M43" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L43" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>1043</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F44" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A44&amp;"-TN"</f>
@@ -2586,30 +2508,28 @@
       <c r="K44" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A44&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M44" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L44" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>1044</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F45" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A45&amp;"-TN"</f>
@@ -2634,30 +2554,28 @@
       <c r="K45" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L45" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A45&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M45" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L45" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>1045</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F46" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A46&amp;"-TN"</f>
@@ -2682,30 +2600,28 @@
       <c r="K46" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L46" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A46&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M46" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L46" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>1046</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F47" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A47&amp;"-TN"</f>
@@ -2730,30 +2646,28 @@
       <c r="K47" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L47" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A47&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M47" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L47" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>1047</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F48" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A48&amp;"-TN"</f>
@@ -2778,30 +2692,28 @@
       <c r="K48" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A48&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M48" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L48" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>1048</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F49" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A49&amp;"-TN"</f>
@@ -2826,30 +2738,28 @@
       <c r="K49" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L49" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A49&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M49" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L49" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>1049</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F50" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A50&amp;"-TN"</f>
@@ -2874,30 +2784,28 @@
       <c r="K50" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L50" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A50&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M50" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L50" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F51" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A51&amp;"-TN"</f>
@@ -2922,30 +2830,28 @@
       <c r="K51" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L51" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A51&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M51" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L51" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>1051</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F52" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A52&amp;"-TN"</f>
@@ -2970,30 +2876,28 @@
       <c r="K52" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L52" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A52&amp;"_PHYDOM"</f>
-        <v>LEGACY-L2DC_PHYDOM</v>
-      </c>
-      <c r="M52" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L52" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>1052</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F53" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A53&amp;"-TN"</f>
@@ -3018,30 +2922,28 @@
       <c r="K53" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L53" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A53&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M53" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L53" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>1053</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F54" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A54&amp;"-TN"</f>
@@ -3066,30 +2968,28 @@
       <c r="K54" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L54" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A54&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M54" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L54" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>1054</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F55" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A55&amp;"-TN"</f>
@@ -3114,30 +3014,28 @@
       <c r="K55" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L55" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A55&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M55" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L55" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>1055</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F56" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A56&amp;"-TN"</f>
@@ -3162,30 +3060,28 @@
       <c r="K56" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L56" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A56&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M56" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L56" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>1056</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F57" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A57&amp;"-TN"</f>
@@ -3210,30 +3106,28 @@
       <c r="K57" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L57" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A57&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M57" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L57" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>1057</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F58" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A58&amp;"-TN"</f>
@@ -3258,30 +3152,28 @@
       <c r="K58" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L58" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A58&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M58" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L58" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>1058</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F59" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A59&amp;"-TN"</f>
@@ -3306,30 +3198,28 @@
       <c r="K59" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L59" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A59&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M59" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L59" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>1059</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F60" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A60&amp;"-TN"</f>
@@ -3354,30 +3244,28 @@
       <c r="K60" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L60" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A60&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M60" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L60" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>1060</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F61" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A61&amp;"-TN"</f>
@@ -3402,30 +3290,28 @@
       <c r="K61" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L61" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A61&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M61" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L61" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>1061</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F62" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A62&amp;"-TN"</f>
@@ -3450,30 +3336,28 @@
       <c r="K62" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L62" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A62&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M62" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L62" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>1062</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F63" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A63&amp;"-TN"</f>
@@ -3498,30 +3382,28 @@
       <c r="K63" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L63" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A63&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M63" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L63" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>1063</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F64" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A64&amp;"-TN"</f>
@@ -3546,30 +3428,28 @@
       <c r="K64" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L64" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A64&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M64" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L64" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>1064</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F65" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A65&amp;"-TN"</f>
@@ -3594,30 +3474,28 @@
       <c r="K65" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L65" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A65&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M65" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L65" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M65" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>1065</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F66" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A66&amp;"-TN"</f>
@@ -3642,30 +3520,28 @@
       <c r="K66" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L66" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A66&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M66" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L66" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>1066</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F67" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A67&amp;"-TN"</f>
@@ -3690,30 +3566,28 @@
       <c r="K67" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L67" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A67&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M67" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L67" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M67" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>1067</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F68" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A68&amp;"-TN"</f>
@@ -3738,30 +3612,28 @@
       <c r="K68" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L68" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A68&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M68" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L68" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M68" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>1068</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F69" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A69&amp;"-TN"</f>
@@ -3786,30 +3658,28 @@
       <c r="K69" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L69" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A69&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M69" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L69" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M69" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>1069</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F70" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A70&amp;"-TN"</f>
@@ -3834,30 +3704,28 @@
       <c r="K70" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L70" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A70&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M70" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L70" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M70" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>1070</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F71" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A71&amp;"-TN"</f>
@@ -3882,30 +3750,28 @@
       <c r="K71" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L71" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A71&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M71" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L71" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M71" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>1071</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F72" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A72&amp;"-TN"</f>
@@ -3930,30 +3796,28 @@
       <c r="K72" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L72" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A72&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M72" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L72" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M72" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>1072</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F73" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A73&amp;"-TN"</f>
@@ -3978,30 +3842,28 @@
       <c r="K73" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L73" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A73&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M73" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L73" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M73" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>1073</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F74" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A74&amp;"-TN"</f>
@@ -4026,30 +3888,28 @@
       <c r="K74" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L74" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A74&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M74" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L74" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M74" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>1074</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F75" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A75&amp;"-TN"</f>
@@ -4074,30 +3934,28 @@
       <c r="K75" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L75" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A75&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M75" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L75" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M75" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>1075</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F76" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A76&amp;"-TN"</f>
@@ -4122,30 +3980,28 @@
       <c r="K76" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L76" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A76&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M76" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L76" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M76" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>1076</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F77" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A77&amp;"-TN"</f>
@@ -4170,30 +4026,28 @@
       <c r="K77" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L77" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A77&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M77" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L77" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M77" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>1077</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F78" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A78&amp;"-TN"</f>
@@ -4218,30 +4072,28 @@
       <c r="K78" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L78" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A78&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M78" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L78" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M78" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>1078</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F79" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A79&amp;"-TN"</f>
@@ -4266,30 +4118,28 @@
       <c r="K79" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L79" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A79&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M79" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L79" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M79" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>1079</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F80" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A80&amp;"-TN"</f>
@@ -4314,30 +4164,28 @@
       <c r="K80" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L80" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A80&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M80" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L80" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M80" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>1080</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F81" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A81&amp;"-TN"</f>
@@ -4362,30 +4210,28 @@
       <c r="K81" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L81" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A81&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M81" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L81" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M81" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>1081</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F82" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A82&amp;"-TN"</f>
@@ -4410,30 +4256,28 @@
       <c r="K82" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L82" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A82&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M82" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L82" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>1082</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F83" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A83&amp;"-TN"</f>
@@ -4458,30 +4302,28 @@
       <c r="K83" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L83" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A83&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M83" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L83" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M83" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>1083</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F84" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A84&amp;"-TN"</f>
@@ -4506,30 +4348,28 @@
       <c r="K84" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L84" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A84&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M84" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L84" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M84" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>1084</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F85" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A85&amp;"-TN"</f>
@@ -4554,30 +4394,28 @@
       <c r="K85" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L85" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A85&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M85" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L85" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M85" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>1085</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F86" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A86&amp;"-TN"</f>
@@ -4602,30 +4440,28 @@
       <c r="K86" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L86" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A86&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M86" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L86" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M86" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>1086</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F87" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A87&amp;"-TN"</f>
@@ -4650,30 +4486,28 @@
       <c r="K87" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L87" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A87&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M87" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L87" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M87" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>1087</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F88" s="0" t="str">
         <f aca="false">"LEGACY-"&amp;A88&amp;"-TN"</f>
@@ -4698,16 +4532,14 @@
       <c r="K88" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L88" s="0" t="str">
-        <f aca="false">"LEGACY-"&amp;A88&amp;"_PHYDOM"</f>
-        <v>LEGACY-DMZ_PHYDOM</v>
-      </c>
-      <c r="M88" s="0" t="str">
-        <f aca="false">"VPC-N7000-MIGRATION_IPG"</f>
-        <v>VPC-N7000-MIGRATION_IPG</v>
+      <c r="L88" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M88" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
